--- a/Sprint_backlog.xlsx
+++ b/Sprint_backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://vtcmca-my.sharepoint.com/personal/240253372_stu_vtc_edu_hk/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5FB9FD16-1DD7-4850-9D09-6426AC7FBE7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{453FCC57-A50D-426E-ADFC-AF41EE73813D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="2" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="21120" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Oct. 2025" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="179">
   <si>
     <t>Week</t>
   </si>
@@ -269,6 +269,15 @@
     <t>Week 7(Nov 23th - Nov 29th)</t>
   </si>
   <si>
+    <t>Watched LLM tutorial videos; Learned fundamental concepts and principle</t>
+  </si>
+  <si>
+    <t>LLMs are deep learning models trained on massive text corpora to generate and comprehend human language；Built on Transformer with self-attention mechanisms to model contextual dependencies</t>
+  </si>
+  <si>
+    <t>Keep learning of LLMs.</t>
+  </si>
+  <si>
     <t>Began surveying fraud/RAG resources and governance guidance to prep for later implementation; shared high-level takeaways with team.</t>
   </si>
   <si>
@@ -291,6 +300,15 @@
     <t>Week 8(Nov 30th - Dec 6th)</t>
   </si>
   <si>
+    <t>Explored the typical application scenarios of LLMs</t>
+  </si>
+  <si>
+    <t>Key Workflow: Text → tokenization → pre-training (next-token prediction) → fine-tuning (task-specific adaptation)</t>
+  </si>
+  <si>
+    <t>Seeking more educational materials on LLMs for continued study.</t>
+  </si>
+  <si>
     <t>Surveyed fraud/RAG resources and governance guidance; outlined early research plan for dataset and tooling evaluation.</t>
   </si>
   <si>
@@ -308,6 +326,15 @@
     <t>Week 9(Dec 7th - Dec 13th)</t>
   </si>
   <si>
+    <t>Studying and practicing the fine-tuning and deployment of pre-trained language models</t>
+  </si>
+  <si>
+    <t>https://github.com/Lordog/dive-into-llms</t>
+  </si>
+  <si>
+    <t>Further solidifying LLM knowledge by studying educational repositories on GitHub</t>
+  </si>
+  <si>
     <t>Reviewed HTML parsing techniques for scraping and privacy compliance references to guide data handling.</t>
   </si>
   <si>
@@ -327,6 +354,15 @@
   </si>
   <si>
     <t>Week 10(Dec 14th - Dec 20th)</t>
+  </si>
+  <si>
+    <t>Learned to call LLM APIs and perform inference through practical guides.</t>
+  </si>
+  <si>
+    <t>https://github.com/Lordog/dive-into-llms/blob/main/documents/chapter2/README.md</t>
+  </si>
+  <si>
+    <t>Strengthen LLM skills by working through open-source tutorials</t>
   </si>
   <si>
     <t>Researched datasets/tools (ChiFraud, fraud reports) and RAG patterns; assisted Tan Xiuhao on web scraping approach; shared notes.</t>
@@ -351,6 +387,15 @@
     <t>Week 11(Dec 21th - Dec 27th)</t>
   </si>
   <si>
+    <t>Explored current anti-fraud solutions, including software applications and web-based platforms.</t>
+  </si>
+  <si>
+    <t>The existing ADCC webpage has a low update frequency.  “Scameter+" Detector lacks text input/query functionality.</t>
+  </si>
+  <si>
+    <t>Proceeding to lock down the data sources.</t>
+  </si>
+  <si>
     <t>Researched MCP direction and Android ecosystem fit; gathered fraud/policy references to guide future work.</t>
   </si>
   <si>
@@ -366,6 +411,12 @@
   </si>
   <si>
     <t>Week 12(Dec 28th - Jan 3rd)</t>
+  </si>
+  <si>
+    <t>Analyzed and compared various anti-fraud awareness channels, selecting HK01 as the primary data source.</t>
+  </si>
+  <si>
+    <t>HK01 features a specialized anti-fraud column with high update frequency, ensuring fresh and relevant data.</t>
   </si>
   <si>
     <t>Learn web scraping techniques and attempt to extract data from target web pages</t>
@@ -917,6 +968,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -955,21 +1021,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1791,7 +1842,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+      <selection pane="bottomLeft" activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.45"/>
@@ -1824,7 +1875,7 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="15">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1836,7 +1887,7 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="46.5">
-      <c r="A3" s="27"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
@@ -1854,7 +1905,7 @@
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.95">
-      <c r="A4" s="27"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -1872,7 +1923,7 @@
       </c>
     </row>
     <row r="5" spans="1:6" ht="105.75" customHeight="1">
-      <c r="A5" s="27"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -1890,7 +1941,7 @@
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="32" t="s">
         <v>22</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -1904,7 +1955,7 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="57.75">
-      <c r="A7" s="27"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
@@ -1922,7 +1973,7 @@
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.25">
-      <c r="A8" s="27"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1936,7 +1987,7 @@
       </c>
     </row>
     <row r="9" spans="1:6" ht="57.75">
-      <c r="A9" s="27"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1952,7 +2003,7 @@
       </c>
     </row>
     <row r="10" spans="1:6" ht="29.1">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="32" t="s">
         <v>31</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1968,7 +2019,7 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="29.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1986,7 +2037,7 @@
       </c>
     </row>
     <row r="12" spans="1:6" ht="29.25">
-      <c r="A12" s="27"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -2002,7 +2053,7 @@
       </c>
     </row>
     <row r="13" spans="1:6" ht="130.5">
-      <c r="A13" s="27"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2053,8 +2104,8 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2087,7 +2138,7 @@
       </c>
     </row>
     <row r="2" spans="1:6">
-      <c r="A2" s="27" t="s">
+      <c r="A2" s="32" t="s">
         <v>43</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -2099,25 +2150,25 @@
       <c r="F2" s="4"/>
     </row>
     <row r="3" spans="1:6" ht="29.25">
-      <c r="A3" s="27"/>
+      <c r="A3" s="32"/>
       <c r="B3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="40" t="s">
+      <c r="C3" s="27" t="s">
         <v>44</v>
       </c>
       <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="40" t="s">
+      <c r="E3" s="27" t="s">
         <v>45</v>
       </c>
-      <c r="F3" s="40" t="s">
+      <c r="F3" s="27" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="30.75">
-      <c r="A4" s="27"/>
+      <c r="A4" s="32"/>
       <c r="B4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2130,12 +2181,12 @@
       <c r="E4" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="40" t="s">
+      <c r="F4" s="27" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.75">
-      <c r="A5" s="27"/>
+      <c r="A5" s="32"/>
       <c r="B5" s="2" t="s">
         <v>18</v>
       </c>
@@ -2151,7 +2202,7 @@
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="32" t="s">
         <v>52</v>
       </c>
       <c r="B6" s="2" t="s">
@@ -2163,43 +2214,43 @@
       <c r="F6" s="4"/>
     </row>
     <row r="7" spans="1:6" ht="29.25">
-      <c r="A7" s="27"/>
+      <c r="A7" s="32"/>
       <c r="B7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="40" t="s">
+      <c r="C7" s="27" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E7" s="40" t="s">
+      <c r="E7" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F7" s="40" t="s">
+      <c r="F7" s="27" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="30.75">
-      <c r="A8" s="27"/>
+      <c r="A8" s="32"/>
       <c r="B8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="27" t="s">
         <v>56</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E8" s="40" t="s">
+      <c r="E8" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F8" s="40" t="s">
+      <c r="F8" s="27" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="43.5">
-      <c r="A9" s="27"/>
+      <c r="A9" s="32"/>
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2215,7 +2266,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="32" t="s">
         <v>61</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -2227,43 +2278,43 @@
       <c r="F10" s="4"/>
     </row>
     <row r="11" spans="1:6" ht="29.25">
-      <c r="A11" s="27"/>
+      <c r="A11" s="32"/>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="40" t="s">
+      <c r="C11" s="27" t="s">
         <v>62</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="40" t="s">
+      <c r="E11" s="27" t="s">
         <v>63</v>
       </c>
-      <c r="F11" s="40" t="s">
+      <c r="F11" s="27" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="30.75">
-      <c r="A12" s="27"/>
+      <c r="A12" s="32"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="27" t="s">
         <v>65</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E12" s="40" t="s">
+      <c r="E12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="F12" s="40" t="s">
+      <c r="F12" s="27" t="s">
         <v>67</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="29.25">
-      <c r="A13" s="27"/>
+      <c r="A13" s="32"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
@@ -2279,7 +2330,7 @@
       <c r="F13" s="10"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="27" t="s">
+      <c r="A14" s="32" t="s">
         <v>70</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -2290,50 +2341,58 @@
       <c r="E14" s="20"/>
       <c r="F14" s="19"/>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="27"/>
+    <row r="15" spans="1:6" ht="59.25">
+      <c r="A15" s="32"/>
       <c r="B15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="42"/>
-      <c r="F15" s="26"/>
+      <c r="C15" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="F15" s="26" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="16" spans="1:6" ht="57.75">
-      <c r="A16" s="27"/>
-      <c r="B16" s="41" t="s">
+      <c r="A16" s="32"/>
+      <c r="B16" s="28" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="57.75">
-      <c r="A17" s="27"/>
+      <c r="A17" s="32"/>
       <c r="B17" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C17" s="43" t="s">
-        <v>74</v>
+      <c r="C17" s="30" t="s">
+        <v>77</v>
       </c>
       <c r="D17" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E17" s="44" t="s">
-        <v>75</v>
-      </c>
-      <c r="F17" s="43" t="s">
-        <v>76</v>
+      <c r="E17" s="31" t="s">
+        <v>78</v>
+      </c>
+      <c r="F17" s="30" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="14.45">
@@ -2372,9 +2431,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E113B35E-2931-4CEF-BA34-BEDAE5DB7915}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2383,7 +2442,8 @@
     <col min="2" max="2" width="18.7109375" style="3" customWidth="1"/>
     <col min="3" max="3" width="50.5703125" style="7" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="50.5703125" style="6" customWidth="1"/>
+    <col min="5" max="5" width="55.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="50.5703125" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -2407,189 +2467,219 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>77</v>
+      <c r="A2" s="33" t="s">
+        <v>80</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>81</v>
+      </c>
       <c r="D2" s="1"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="4"/>
+      <c r="E2" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="57.75">
-      <c r="A3" s="29"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.75">
-      <c r="A4" s="30"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>82</v>
+      <c r="A5" s="33" t="s">
+        <v>88</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="4"/>
+      <c r="C5" s="4" t="s">
+        <v>89</v>
+      </c>
       <c r="D5" s="2"/>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="18" t="s">
+        <v>90</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="6" spans="1:6" ht="57.75">
-      <c r="A6" s="29"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>83</v>
+        <v>92</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="57.75">
-      <c r="A7" s="30"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>86</v>
+        <v>95</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>87</v>
+        <v>96</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>88</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>89</v>
+      <c r="A8" s="33" t="s">
+        <v>98</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="4"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
+      <c r="C8" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>100</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="9" spans="1:6" ht="72.75">
-      <c r="A9" s="29"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5">
-      <c r="A10" s="30"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>96</v>
+      <c r="A11" s="33" t="s">
+        <v>108</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="19"/>
+      <c r="C11" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="12" spans="1:6" ht="29.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="20"/>
-      <c r="F12" s="19"/>
+      <c r="F12" s="19" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="13" spans="1:6" ht="57.75">
-      <c r="A13" s="30"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2615,6 +2705,10 @@
       <formula1>"Completed, In progress"</formula1>
     </dataValidation>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="E5" r:id="rId1" xr:uid="{198024ED-0FD7-41AA-839B-EFA63B99DB3F}"/>
+    <hyperlink ref="E8" r:id="rId2" xr:uid="{F69806CE-98AC-4554-8349-0EF8754B3B3F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -2623,9 +2717,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6408D205-5968-4F56-AE81-AD1AEC83C358}">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2658,275 +2752,281 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>101</v>
+      <c r="A2" s="33" t="s">
+        <v>116</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="4"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="10"/>
+      <c r="C2" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>118</v>
+      </c>
       <c r="F2" s="4" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="57.75">
-      <c r="A3" s="29"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="57.75">
-      <c r="A4" s="30"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="F4" s="4" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>109</v>
+      <c r="A5" s="33" t="s">
+        <v>126</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="72.75">
-      <c r="A6" s="29"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="57.75">
-      <c r="A7" s="30"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="D7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>117</v>
+      <c r="A8" s="33" t="s">
+        <v>134</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="72.75">
-      <c r="A9" s="29"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>122</v>
+        <v>139</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>123</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="72.75">
-      <c r="A10" s="30"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>124</v>
+        <v>141</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>125</v>
+        <v>142</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>126</v>
+      <c r="A11" s="33" t="s">
+        <v>143</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>127</v>
+        <v>144</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="F11" s="19" t="s">
-        <v>129</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="101.25">
-      <c r="A12" s="29"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>130</v>
+        <v>147</v>
       </c>
       <c r="D12" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>131</v>
+        <v>148</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="57.75">
-      <c r="A13" s="30"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>133</v>
+        <v>150</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="F13" s="19" t="s">
-        <v>134</v>
+        <v>151</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="29.25">
-      <c r="A14" s="28" t="s">
-        <v>135</v>
+      <c r="A14" s="33" t="s">
+        <v>152</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>136</v>
+        <v>153</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>137</v>
+        <v>154</v>
       </c>
       <c r="F14" s="19" t="s">
-        <v>138</v>
+        <v>155</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="101.25">
-      <c r="A15" s="29"/>
+      <c r="A15" s="34"/>
       <c r="B15" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>139</v>
+        <v>156</v>
       </c>
       <c r="D15" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E15" s="20" t="s">
-        <v>140</v>
+        <v>157</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="43.5">
-      <c r="A16" s="30"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>142</v>
+        <v>159</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>10</v>
       </c>
       <c r="E16" s="20" t="s">
-        <v>143</v>
+        <v>160</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>144</v>
+        <v>161</v>
       </c>
     </row>
   </sheetData>
@@ -2997,96 +3097,96 @@
       </c>
     </row>
     <row r="2" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A2" s="28" t="s">
-        <v>145</v>
+      <c r="A2" s="33" t="s">
+        <v>162</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>146</v>
+        <v>163</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E2" s="23" t="s">
-        <v>147</v>
+        <v>164</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>148</v>
+        <v>165</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="72.75">
-      <c r="A3" s="29"/>
+      <c r="A3" s="34"/>
       <c r="B3" s="2" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>150</v>
+        <v>167</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>151</v>
+        <v>168</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="64.5" customHeight="1">
-      <c r="A4" s="30"/>
+      <c r="A4" s="35"/>
       <c r="B4" s="2" t="s">
         <v>18</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>152</v>
+        <v>169</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="4" t="s">
-        <v>153</v>
+        <v>170</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A5" s="28" t="s">
-        <v>154</v>
+      <c r="A5" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>155</v>
-      </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="33"/>
+      <c r="C5" s="36" t="s">
+        <v>172</v>
+      </c>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="38"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="29"/>
+      <c r="A6" s="34"/>
       <c r="B6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="34"/>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="36"/>
+      <c r="C6" s="39"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="30"/>
+      <c r="A7" s="35"/>
       <c r="B7" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C7" s="37"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="39"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="43"/>
+      <c r="F7" s="44"/>
     </row>
     <row r="8" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A8" s="28" t="s">
-        <v>156</v>
+      <c r="A8" s="33" t="s">
+        <v>173</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>8</v>
@@ -3097,7 +3197,7 @@
       <c r="F8" s="4"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="29"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="2" t="s">
         <v>13</v>
       </c>
@@ -3107,7 +3207,7 @@
       <c r="F9" s="4"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="30"/>
+      <c r="A10" s="35"/>
       <c r="B10" s="2" t="s">
         <v>18</v>
       </c>
@@ -3117,8 +3217,8 @@
       <c r="F10" s="10"/>
     </row>
     <row r="11" spans="1:6" ht="29.25" customHeight="1">
-      <c r="A11" s="28" t="s">
-        <v>157</v>
+      <c r="A11" s="33" t="s">
+        <v>174</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>8</v>
@@ -3129,7 +3229,7 @@
       <c r="F11" s="19"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="29"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="2" t="s">
         <v>13</v>
       </c>
@@ -3139,7 +3239,7 @@
       <c r="F12" s="19"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="30"/>
+      <c r="A13" s="35"/>
       <c r="B13" s="2" t="s">
         <v>18</v>
       </c>
@@ -3196,10 +3296,10 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="15" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="B1" s="15" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="C1" s="15" t="s">
         <v>3</v>
@@ -3210,7 +3310,7 @@
         <v>7</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="C2" s="17" t="b">
         <v>0</v>
@@ -3221,7 +3321,7 @@
         <v>8</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>161</v>
+        <v>178</v>
       </c>
       <c r="C3" s="17" t="b">
         <v>0</v>
